--- a/Daten/20210124_Impfdaten_BAG.xlsx
+++ b/Daten/20210124_Impfdaten_BAG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/R/Impfungen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/R/impfzahlen/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{EB26AB4A-6643-477E-ACA7-F1F15C2621B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{91D73D8D-5CA9-4DF7-B90A-2D953C20AFB6}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{EB26AB4A-6643-477E-ACA7-F1F15C2621B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1058A462-DA5A-4647-AF33-3BC354A14728}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4140" yWindow="2892" windowWidth="17280" windowHeight="8964" xr2:uid="{6F5193BF-2551-4C08-AEC2-931766D15424}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F5193BF-2551-4C08-AEC2-931766D15424}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -162,11 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -483,13 +482,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE424B98-BCAE-43F8-98BE-985AD45E658F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" style="3"/>
+    <col min="2" max="2" width="11.5546875" style="2"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -498,7 +497,7 @@
       <c r="A1" s="1">
         <v>44220</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
@@ -512,8 +511,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>535115</v>
+      <c r="B2" s="2">
+        <v>471400</v>
       </c>
       <c r="C2" s="2">
         <v>197368</v>
@@ -526,8 +525,8 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>29220</v>
+      <c r="B3" s="2">
+        <v>26100</v>
       </c>
       <c r="C3" s="2">
         <v>11811</v>
@@ -540,8 +539,8 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>41475</v>
+      <c r="B4" s="2">
+        <v>40500</v>
       </c>
       <c r="C4" s="2">
         <v>15847</v>
@@ -554,8 +553,8 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>35230</v>
+      <c r="B5" s="2">
+        <v>20975</v>
       </c>
       <c r="C5" s="2">
         <v>10210</v>
@@ -568,8 +567,8 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>16740</v>
+      <c r="B6" s="2">
+        <v>16350</v>
       </c>
       <c r="C6" s="2">
         <v>6084</v>
@@ -582,8 +581,8 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>12390</v>
+      <c r="B7" s="2">
+        <v>12000</v>
       </c>
       <c r="C7" s="2">
         <v>2585</v>
@@ -596,8 +595,8 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>5895</v>
+      <c r="B8" s="2">
+        <v>4725</v>
       </c>
       <c r="C8" s="2">
         <v>2032</v>
@@ -610,8 +609,8 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>55250</v>
+      <c r="B9" s="2">
+        <v>39250</v>
       </c>
       <c r="C9" s="2">
         <v>14308</v>
@@ -624,8 +623,8 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>16740</v>
+      <c r="B10" s="2">
+        <v>16350</v>
       </c>
       <c r="C10" s="2">
         <v>10234</v>
@@ -638,8 +637,8 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>23700</v>
+      <c r="B11" s="2">
+        <v>13575</v>
       </c>
       <c r="C11" s="2">
         <v>10890</v>
@@ -652,8 +651,8 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>23295</v>
+      <c r="B12" s="2">
+        <v>20175</v>
       </c>
       <c r="C12" s="2">
         <v>8315</v>
@@ -666,8 +665,8 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>38700</v>
+      <c r="B13" s="2">
+        <v>37725</v>
       </c>
       <c r="C13" s="2">
         <v>12973</v>
@@ -680,8 +679,8 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>78935</v>
+      <c r="B14" s="2">
+        <v>77375</v>
       </c>
       <c r="C14" s="2">
         <v>25528</v>
@@ -694,8 +693,8 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3">
-        <v>6195</v>
+      <c r="B15" s="2">
+        <v>6000</v>
       </c>
       <c r="C15" s="2">
         <v>3982</v>
@@ -708,8 +707,8 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
-        <v>16635</v>
+      <c r="B16" s="2">
+        <v>15075</v>
       </c>
       <c r="C16" s="2">
         <v>4072</v>
@@ -722,8 +721,8 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3">
-        <v>4520</v>
+      <c r="B17" s="2">
+        <v>4325</v>
       </c>
       <c r="C17" s="2">
         <v>2349</v>
@@ -736,7 +735,7 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1375</v>
       </c>
       <c r="C18" s="2">
@@ -750,8 +749,8 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3">
-        <v>27885</v>
+      <c r="B19" s="2">
+        <v>27300</v>
       </c>
       <c r="C19" s="2">
         <v>8870</v>
@@ -764,7 +763,7 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>2950</v>
       </c>
       <c r="C20" s="2">
@@ -778,8 +777,8 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
-        <v>10815</v>
+      <c r="B21" s="2">
+        <v>9450</v>
       </c>
       <c r="C21" s="2">
         <v>3250</v>
@@ -792,8 +791,8 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3">
-        <v>7770</v>
+      <c r="B22" s="2">
+        <v>7575</v>
       </c>
       <c r="C22" s="2">
         <v>6599</v>
@@ -806,8 +805,8 @@
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3">
-        <v>24705</v>
+      <c r="B23" s="2">
+        <v>23925</v>
       </c>
       <c r="C23" s="2">
         <v>11241</v>
@@ -820,8 +819,8 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3">
-        <v>4120</v>
+      <c r="B24" s="2">
+        <v>3925</v>
       </c>
       <c r="C24" s="2">
         <v>3218</v>
@@ -834,8 +833,8 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3">
-        <v>3045</v>
+      <c r="B25" s="2">
+        <v>2850</v>
       </c>
       <c r="C25" s="2">
         <v>1866</v>
@@ -848,8 +847,8 @@
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="3">
-        <v>4020</v>
+      <c r="B26" s="2">
+        <v>3825</v>
       </c>
       <c r="C26" s="2">
         <v>1361</v>
@@ -862,8 +861,8 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
-        <v>13290</v>
+      <c r="B27" s="2">
+        <v>11925</v>
       </c>
       <c r="C27" s="2">
         <v>4316</v>
@@ -876,8 +875,8 @@
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3">
-        <v>27145</v>
+      <c r="B28" s="2">
+        <v>24025</v>
       </c>
       <c r="C28" s="2">
         <v>11815</v>
@@ -890,8 +889,8 @@
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="3">
-        <v>3075</v>
+      <c r="B29" s="2">
+        <v>1775</v>
       </c>
       <c r="C29" s="2">
         <v>1155</v>
